--- a/StarSeeker/operator/samples/tenant.xlsx
+++ b/StarSeeker/operator/samples/tenant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C92C1-9858-4D86-9746-F41B115BD5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586A9DA7-D809-4A29-ADE9-50769FD7DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="tenant" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>#テナント名</t>
     <rPh sb="5" eb="6">
@@ -43,15 +43,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sample_government_plan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample_flood_control</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample_public_facility</t>
+    <t>112399_sakado_city</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -416,35 +408,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB64F55-DEA2-416E-92FA-60CC0F3630E2}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/StarSeeker/operator/samples/tenant.xlsx
+++ b/StarSeeker/operator/samples/tenant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586A9DA7-D809-4A29-ADE9-50769FD7DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF8F482-9852-424F-AE19-D451F4985762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="tenant" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>#テナント名</t>
     <rPh sb="5" eb="6">
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>112399_sakado_city</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>112399_sakado_city_flood_control</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,25 +412,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB64F55-DEA2-416E-92FA-60CC0F3630E2}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="31.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/StarSeeker/operator/samples/tenant.xlsx
+++ b/StarSeeker/operator/samples/tenant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF8F482-9852-424F-AE19-D451F4985762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CABF948-5EF2-4AF8-B59E-74AE3CDF59E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>#テナント名</t>
     <rPh sb="5" eb="6">
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>112399_sakado_city_flood_control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -412,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB64F55-DEA2-416E-92FA-60CC0F3630E2}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -430,11 +434,16 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/StarSeeker/operator/samples/tenant.xlsx
+++ b/StarSeeker/operator/samples/tenant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CABF948-5EF2-4AF8-B59E-74AE3CDF59E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CD1022-00D4-4037-A46F-F3B4A18551F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="tenant" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>#テナント名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>112399_sakado_city</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>112399_sakado_city_flood_control</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -416,35 +408,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB64F55-DEA2-416E-92FA-60CC0F3630E2}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/StarSeeker/operator/samples/tenant.xlsx
+++ b/StarSeeker/operator/samples/tenant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CD1022-00D4-4037-A46F-F3B4A18551F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B54F17A-0267-498D-884C-0A3ABB70F276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
+    <workbookView xWindow="280" yWindow="1940" windowWidth="14400" windowHeight="7890" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="tenant" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>#テナント名</t>
     <rPh sb="5" eb="6">
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>government</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,23 +412,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB64F55-DEA2-416E-92FA-60CC0F3630E2}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
